--- a/PI1/APIs of MSInfo.xlsx
+++ b/PI1/APIs of MSInfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656A5F72-F877-4366-B71D-BF009B49545E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B9DFEC-5029-4B6D-96CB-E283214DB1EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>if successfully delete selected micro service, the status is SUCCESS, or it will return failure with the fauilure message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -495,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -503,193 +499,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="5" width="38.125" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="32.5" customWidth="1"/>
-    <col min="8" max="8" width="29.125" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="7" max="7" width="29.125" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G11" s="4"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
